--- a/finetuning/it_datasets/qa_dataset/qa_it_ghardimaou_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_ghardimaou_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA48"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -659,12 +664,57 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated cafe, Escobar Cafe is the perfect spot. Located at FC2M+R98 Escobar Cafe, it offers a cozy ambiance with a rating of 4.0. Whether you're a coffee enthusiast or just looking for a relaxing spot to unwind, Escobar Cafe has you covered.</t>
+          <t>Escobar Cafe is located in ghardimaou at FC2M+R98. It has a 4.0 rating and offers cafe services.</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a highly-rated cafe known for its cozy atmosphere?</t>
+          <t>Day Plan:
+Morning: Explore the unique cultural experience at I ghardimaou.
+Mid-Morning: Engage in a culinary adventure at mshwy nbyl, known for its exceptional barbecue.
+Midday: Visit the popular Station des Louages for a convenient transportation hub.
+Afternoon: Indulge in a gastronomic delight at Fast food, known for its diverse menu options.
+Evening: Enjoy a peaceful walk through the scenic Ghardimaou and marvel at its traditional pottery and weaving.
+Night: Relax and rejuvenate with a calming experience at Relais telephonique, offering various services for ultimate comfort.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Tom is a top-rated cafe in Ghardimaou, Tunisia, with a 4.8-star rating based on 12 reviews. It is open 24 hours a day and is located at 36.4515944, 8.4333415. Cafe Tom offers a cozy ambiance and delicious food and drinks, making it a perfect spot for a relaxing or social gathering.
+Fast Food is a highly-rated restaurant located in Ghardimaou, Tunisia. It offers a wide range of delicious food options, making it a great choice for both locals and tourists alike. The restaurant is conveniently situated at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). With its excellent reviews and prime location, Fast Food is definitely worth a visit for anyone looking for a great meal.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -766,12 +816,57 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Cafe, check out Cafe La gare located at CCXQ+77M Cafe La gare, Ghardimaou. This top-rated destination is perfect for Cafe lovers and offers a range of services to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 36.4481985, 8.4381442. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+La+gare/data=!4m7!3m6!1s0x12fafcfda8bf1b51:0x9cfe390df326cb23!8m2!3d36.4482163!4d8.4381787!16s%2Fg%2F1hm3yrqg4!19sChIJURu_qP38-hIRI8sm8w05_pw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of Ghardimaou, Cafe La gare welcomes you in a cozy and inviting atmosphere. Located at coordinates (36.4481985, 8.4381442), this cafe offers a tranquil ambiance where you can relax and unwind. Whether you seek a morning pick-me-up or an evening respite, Cafe La gare has got you covered from 6 AM to 9 PM daily.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where can you find Cafe La gare, a highly-rated cafe in Ghardimaou with extended hours?</t>
+          <t>Day Plan:
+Morning: Explore the unique cultural experience of I ghardimaou.
+Mid-Morning: Try local cuisine at Restaurant Khaled, known for its varied dining options and 4-star rating.
+Midday: Immerse in the beauty of Ghardimaou by taking a guided tour of the town.
+Afternoon: Enjoy scenic views and relax at I ghardimaou, which offers breathtaking natural landscapes.
+Evening: Engage in outdoor activities like hiking or biking at one of Ghardimaou's scenic spots.
+Night: Experience a musical performance and savor beverages at Ghardimaou Tiger Cafe, known for its cozy ambiance and positive reviews.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ghardimaou Tiger Cafe is a cafe located in Ghardimaou, Tunisia, with coordinates (36.4515944, 8.4333415). It offers a cozy ambiance and serves a variety of beverages and snacks. The cafe also hosts live music events and has received positive reviews for its friendly staff and quality offerings.
+Restaurant Khaled is located in Ghardimaou, Tunisia, at coordinates (36.4515944, 8.4333415). It offers a variety of dining options and has a rating of 4.0 out of 5 stars. The restaurant's phone number is 28 478 817, and its address is FC2V+8QJ restaurant khaled, P6, Ghardimaou.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -877,12 +972,57 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Cafe Tom located at FF32+246 Cafe Tom, Unnamed Road, Ghardimaou. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website.</t>
+          <t>**Café Tom** is a highly-rated café located in Ghardimaou. Open 24 hours a day, it is a popular destination for locals and visitors alike. The café offers a wide variety of drinks and snacks, including coffee, tea, pastries, and sandwiches. It is located at (36.4515944, 8.4333415), making it easy to access from anywhere in the city.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a highly rated cafe with a wide selection of options and a convenient 24-hour營業 schedule?</t>
+          <t>Day Plan:
+Morning: Visit the culturally rich I ghardimaou (36.44788, 8.4413) for a unique experience.
+Mid-Morning: Explore the local cafe scene at Cafe Jalel (35.637060466576, 10.76399148328).
+Midday: Try local cuisine at Resto Top Five (36.4515944, 8.4333415) for a diverse culinary experience.
+Afternoon: Enjoy a scenic walk around Ghardimaou, a small town with traditional pottery and weaving.
+Evening: Participate in a guided tour of Station des Louages (FC2V+977, 36.4515944, 8.4333415) for convenient transportation options.
+Night: Relax and enjoy the local ambiance at STATION TAXI GHARDIMAOU (FC2R+3F2, 36.4515944, 8.4333415).</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jalel, a cafe located in Ghardimaou coordinates (35.637060466576, 10.76399148328), is a great place to enjoy the local cafe scene. With a rating of 4.0 based on 4 reviews, it's a popular spot among locals and tourists alike. The cafe is open from 05:00-22:00, so it's a great place to start your day or wind down after a long day of exploring.
+Resto Top Five, located in the city of Ghardimaou, is a restaurant offering a wide range of culinary delights. Situated at coordinates (36.4515944, 8.4333415), the resto is open from 09:00 to 23:00 every day except Fridays. With a rating of 4.0 out of 5 based on 8 reviews, Resto Top Five is a popular destination for food enthusiasts.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -984,12 +1124,57 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Cafe black and white. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+black+and+white/data=!4m7!3m6!1s0x12fafd021532c2bb:0x63f5231ca98d732b!8m2!3d36.4469635!4d8.4415083!16s%2Fg%2F11bzywq8c_!19sChIJu8IyFQL9-hIRK3ONqRwj9WM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>"Cafe black and white" is a well-rated cafe located in Ghardimaou, Tunisia. With a 4.7-star rating and 24/7 opening hours, this cafe is a great spot to grab a quick bite or drink. It is located at the coordinates (36.4515944, 8.4333415) and can be identified with the place ID ChIJu8IyFQL9-hIRK3ONqRwj9WM.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>Where in ghardimaou can you find a highly-rated Cafe destination with a diverse Cafe selection open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the unique cultural experience at I ghardimaou, known for its beautiful scenery and rich history.
+Mid-Morning: Visit the popular tourist attraction, I ghardimaou, and immerse yourself in its cultural ambiance.
+Midday: Try local cuisine at mshwy nbyl, a barbecue restaurant with a 5.0-star rating, savoring the delectable flavors of Tunisian dishes.
+Afternoon: Enjoy scenic views at Ghardimaou, a small town with picturesque surroundings, and revel in the beauty of the region.
+Evening: Engage in outdoor activities like hiking or cycling at a nearby park or outdoor location, immersing yourself in nature's tranquility.
+Night: Relax with a soothing massage at a local spa or hotel, rejuvenating your body and mind after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafétirya is a cafe located in Ghardimaou, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open daily from 6am to 9pm, and is located at CCWR+QC2.
+Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1091,12 +1276,57 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in Ghardimaou and looking for a great dining experience, look no further than Resto Top Five located at Av. Hedi Chaker. This top-rated restaurant is perfect for food lovers and offers a range of cuisines to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on Fridays. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Welcome to Resto Top Five, your ultimate dining destination in ghardimaou. Our restaurant, ideally located at (36.4515944, 8.4333415), offers a delightful ambiance and an extensive menu that caters to every palate. With a rating of 4.0 out of 5 and positive reviews, our commitment to delivering exceptional dining experiences is evident.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find the highly-rated Resto Top Five, known for its diverse cuisine and a cozy ambiance?</t>
+          <t>Day Plan:
+Morning: Explore the cultural heritage of Ghardimaou by visiting I ghardimaou.
+Mid-Morning: Indulge in local cuisine at Resto Top Five, known for its delightful ambiance and diverse menu.
+Midday: Enjoy a scenic walk through Ghardimaou, appreciating the town's traditional pottery and weaving.
+Afternoon: Experience the unique taste of Tunisian barbecue at mshwy nbyl, rated 5.0 stars for its culinary offerings.
+Evening: Head to Station des Louages for convenient transportation to a nearby park or beach for recreational activities.
+Night: Experience the vibrant local culture and nightlife at Station Taxi Ghardimaou, offering a lively and immersive atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Situated in Ghardimaou, Café Jdidi is a well-rated (4.8/5 from 6 reviews) café that primarily serves coffee and other café offerings. It is open daily from 6 AM to 11 PM and is located at coordinates (36.4515944, 8.4333415).
+Welcome to Resto Top Five, your ultimate dining destination in ghardimaou. Our restaurant, ideally located at (36.4515944, 8.4333415), offers a delightful ambiance and an extensive menu that caters to every palate. With a rating of 4.0 out of 5 and positive reviews, our commitment to delivering exceptional dining experiences is evident.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1198,12 +1428,63 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Cafe Bejjoudi located at FC2R+8P8 Cafe Bejjoudi, Ghardimaou. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. It's open 24h/24. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at  https://www.google.com/maps/place/Caf%C3%A9+Bejjoudi/data=!4m7!3m6!1s0x12fafd02cae95d0b:0xcc134fb18a502b6!8m2!3d36.4507752!4d8.4418272!16s%2Fg%2F11g8wpq6vc!19sChIJC13pygL9-hIRtgKlGPs0wQw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 78 000 000.</t>
+          <t>Cafe Bejjoudi is a cafe located in Ghardimaou, Tunisia. It has a rating of 4.0 on Google and is open 24 hours a day. No other information is available about this cafe.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>What is the name and unique feature of the top-rated café in Ghardimaou, with a GPS location and contact information?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Exploring I ghardimaou: Immerse yourself in the rich history and culture of this popular tourist attraction.
+**Mid-Morning:**
+- Trying local cuisine at mshwy nbyl: Indulge in the flavors of authentic barbecue cuisine at this highly-rated restaurant.
+**Midday:**
+- Visiting Boza: Savor a delicious meal at this restaurant offering a wide range of dishes and boasting a 4.0 rating.
+**Afternoon:**
+- Relaxing with a traditional Hammam experience: Unwind and rejuvenate at a spa or hotel in Ghardimaou, enjoying the benefits of a local Hammam ritual.
+**Evening:**
+- Participating in a cultural immersion at a local souk or marketplace: Experience the vibrant energy and browse through unique handicrafts and souvenirs.
+**Night:**
+- Enjoying scenic views at Cafe Neji (habib): Ascend to the rooftop of this café and soak in breathtaking panoramas of the surrounding area while sipping on local beverages.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Neji (habib) is a cafe located in Ghardimaou, Tunisia. It has a rating of 4.5 out of 5 based on 2 reviews. The cafe offers a variety of services, including food and drinks. It is located at the coordinates (36.4515944, 8.4333415).
+BOZA, located in Ghardimaou (coordinates: 36.4515944, 8.4333415), is a restaurant that offers a variety of dishes. It has a 4.0 rating based on 1 review and is open all week.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1313,12 +1594,61 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out Salon de the Elfoundou lfwndw located at FC3H+327, P6, Ghardimaou. This Cafe lovers' paradise offers a rating of 4.9, making it a must-visit spot. Open from 06:10-00:00, it's the perfect place to unwind and enjoy your favorite beverages. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D61555820297118%26mibextid%3DLQQJ4d%26refid%3D17%26_ft_%3Dencrypted_tracking_data.0AY9ofXRBz_knnIV9A9056-bkOkFks0pWRWdtl2nyUBDXZ6HFc5YsLtinlDEM1RJsqfG_MnFbQdj2VaZGaPKrANf5QJOkHuHLaPEFfUkUgUypTQXCpgN4wzhR-Q1UwX28p68Tx5N_LdRdvEqAS0MxdxJgbSA067UTmXhtQFyqynFAXMly3TXNXr8zI0JbJwbjWANVLT7c2LZMkMHOD0xxZwW2XOOSf44UuFBobtVjPcWbmA6mfynl8hnvgFoki_utV8fSGHgh_MgL1i2ppga91yutgRT3t28v2LxW6SlB3yFuc8CxEIRmpcKZLmkjgfGM-bkIZhxdn1u5ju6CCsS-do2i8GA62nMoaFoR8w16RCLw7KqNuAKbJNyamxwcnW6fObzOk0PpDIMa7rdPE58OVWtaqbpwsrfDF9OLOfwOHaCOkeOXg9zT_W57PtwXULdXIkUPlP0Z6kwmcYOpRO-KY60r5GXM3PI2TLLAu7tsmRiokK8Tr11I5z1cWkj4tbKUcRMaIXDNrlGPgULcJjlEclWmlHLeLbXdF-Ryd4m4eiRZC3eDH0m0l6OpQ7cXxlNKHDDRzAL2Dr2dYYpW8U1OfjVWOJckj1Ve_oS6ccSgFaDPW91ae42BZuVOAsslHNcTI4LH8E7d6T5hmV_w8rzf2v-DkH1FEwyY9VSG_YH6gOK-AcBv1RpAsdj1XcnODSVSnsZ7tY2OybpyFyzNdZ-OI_DI-n7fryDvjrXyEslFqPrC19DMHDbzf2EGrEo7PfvJbkYQ4PdyRf6nHuDU2fZcGDX9dGQxvxPX8LWd-0tlHcbZyyz-dJtRb100gBfVWy_HQhi_UNvHSXSDrphB_e02RNJzozTCU__Fo3g3P2rxinEWD4cPZaEAeRYdC6eE-s_CE1XBF7OdjMHvw5gnQo6RjT_aJBQ7YiHpQZvIbSp1zLXNjO7P8_Nr0pHepQi4GSqDtn3EvgHlwOC-ddZRj63rMNe1Q5AhAi_9sCkF2Fzp719ThBXIBgVRPxL2QupKZcerE3TXuJxFujRm0awAf8iEi0Y60mGE6Qewr1uE7BusqzRpmEm2jpZ7VLs0xPDtXYaiQsR_QaC9ma7ZpQTDmMSx7uZzXAjf_MJL15q6bGuj8L7k9wbIjEnQo3B62_itld5fgs-pVrJMzVnk5jaAia6y3pWEVwyRiVcA1bQ2VKtDlFo6zLRArBUG5WOyXie6smHwgXYewyoinyZit_NI88FrxtD_EDTONb3c7235x5A-qtRKDbzwGOIZvyT8tFFXZ3PzZEy8S3yEUTMH8QAaGQVYzf6CtQMoy2dXU1R5asdSinDGTxn_RdYMyOHupYvOCi4fXgmbmnYiHKSfDh1PgKF7verQ0smCb-0jJRCgk4-OLYkubyv5HCJASG96pU-nnL1QYdzhzhCLKLdiw3xEUlz-1Qb_HCeGswdsao0PeVVB1IpkpqsmL6IF11BmvqB_TYFHdQJyzlmq4IhdmsQ4fVTpfZM%26__tn__%3D%252As-R%26paipv%3D0%26eav%3DAfYge7uWp3rvmUMH8zxH2OTDSlY7yEzN4TiDGYymVa14DymhLgh-IOXZ2jWC77xHk5U&amp;hl=fr&amp;rclk=1" or call them at 58 916 688.</t>
+          <t>Unveiling the charm of Salon de the Elfoundou lfwndw, a renowned cafe nestled in Ghardimaou. Located at the heart of the city, this haven offers a sanctuary for coffee lovers and tea enthusiasts alike.
+With a cozy ambiance and a 4.9-star rating, Salon de the Elfoundou lfwndw has garnered a loyal customer base. Its convenient location and extended hours, from 06:10 AM to midnight, make it an ideal destination for morning pick-me-ups, afternoon hangouts, or late-night cravings.
+Step inside to discover a menu that tantalizes the taste buds. From aromatic coffees brewed to perfection to an array of tantalizing teas, there's something to satisfy every palate. Pair your beverage of choice with delicious pastries, delectable sandwiches, or mouthwatering desserts.
+Situated at FC3H+327 Salon de the Elfoundou lfwndw, P6, Ghardimaou, this cafe is easily accessible and ready to welcome you with open arms. Engage with the friendly staff, connect with locals, or simply unwind in the comfortable atmosphere.
+Whether you're a resident or just visiting, Salon de the Elfoundou lfwndw is a must-visit destination for your culinary adventures in Ghardimaou.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where is the highly-rated cafe in Ghardimaou that offers top-rated beverages and has an exceptional rating of 4.9?</t>
+          <t>Day Plan:
+Morning: Exploring Ghardimaou and visiting I ghardimaou for its cultural experience.
+Mid-Morning: Trying local cuisine at Cafe Tom, which is highly-rated with a cozy ambiance.
+Midday: Relaxing with a scenic walk at Station des Louages, enjoying the natural beauty and fresh air.
+Afternoon: Taking a guided tour of Station des Louages, learning about the local transportation system.
+Evening: Enjoying traditional music and entertainment at STATION TAXI GHARDIMAOU while experiencing local culture.
+Night: Participating in a stargazing activity at a nearby open field, taking advantage of the clear night sky.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Tom is a top-rated cafe in Ghardimaou, Tunisia, with a 4.8-star rating based on 12 reviews. It is open 24 hours a day and is located at 36.4515944, 8.4333415. Cafe Tom offers a cozy ambiance and delicious food and drinks, making it a perfect spot for a relaxing or social gathering.
+MAC DOLY is a Restaurant located in ghardimaou, Tunisia at the coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1750,57 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cafe, head to Cafe Jdidi located at CCXQ+9X2 Cafe Jdidi, Ghardimaou. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Jdidi/data=!4m7!3m6!1s0x12fafcfd78974337:0xe8cb3bdfbe122306!8m2!3d36.4483895!4d8.4398831!16s%2Fg%2F11fy4l0q3k!19sChIJN0OXeP38-hIRBiMSvt87y-g?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Situated in Ghardimaou, Café Jdidi is a well-rated (4.8/5 from 6 reviews) café that primarily serves coffee and other café offerings. It is open daily from 6 AM to 11 PM and is located at coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find Cafe Jdidi, a highly rated cafe with a wide variety of options, in Ghardimaou?</t>
+          <t>Day Plan:
+Morning: Explore the scenic I ghardimaou for its cultural heritage and beautiful scenery.
+Mid-Morning: Visit the highly-rated café mqh~ l'jyl for a cozy and relaxing atmosphere with a cup of coffee.
+Midday: Try local cuisine at BERRAIS for a variety of dining options.
+Afternoon: Visit the gas station Relais telephonique for any necessary services and fuel.
+Evening: Enjoy scenic views at Station des Louages while waiting for convenient transportation services.
+Night: Experience cultural immersion at GHARDAIMAOU for its traditional pottery and weaving.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+mqh~ l'jyl is a highly-rated café located in ghardimaou, Tunisia. It offers a cozy and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The café's prime location makes it easily accessible for both locals and visitors alike.
+BERRAIS is a highly rated restaurant located in CCXR+FGH BERRAIS, Ghardimaou, Tunisia. It has received positive reviews and offers a variety of dining options. The restaurant is open daily from 12 PM to 10 PM and is situated at coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1527,15 +1902,57 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Cafe, check out Cafe Jalel located at CCXR+HRR Cafe Jalel, Av. Habib Bourguiba, Ghardimaou. 
-This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:00-22:00, but closed on []. To get there, use these GPS coordinates: 35.637060466576, 10.76399148328. 
-For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Jal%C3%A9l/data=!4m7!3m6!1s0x12fafd02ef1efaa1:0xabd2f95b3df163b5!8m2!3d36.4489955!4d8.4420024!16s%2Fg%2F11g9q598vm!19sChIJofoe7wL9-hIRtWPxPVv50qs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Jalel, a cafe located in Ghardimaou coordinates (35.637060466576, 10.76399148328), is a great place to enjoy the local cafe scene. With a rating of 4.0 based on 4 reviews, it's a popular spot among locals and tourists alike. The cafe is open from 05:00-22:00, so it's a great place to start your day or wind down after a long day of exploring.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where can you find Cafe Jalel, a highly-rated cafe with a wide range of offerings, in the city of Ghardimaou?</t>
+          <t>Day Plan:
+Morning: Explore the captivating I ghardimaou tourist attraction, steeped in history and culture.
+Mid-Morning: Indulge in local Tunisian delights at the highly-rated restaurant, BERRAIS, savoring its diverse dining options.
+Midday: Visit VALORIA, a top-rated cafe in Ghardimaou, and relish its stellar coffee and delectable treats.
+Afternoon: Engage in outdoor adventures at the scenic Ghridimaou beach, enjoying a refreshing swim or invigorating walk.
+Evening: Participate in the vibrant cultural scene at the Station des Louages, experiencing the local traditions and interactions.
+Night: Relax and rejuvenate at Hotel de Charme, nestled amidst serene surroundings, indulging in a soothing massage or unwinding by the pool.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+VALORIA, a top-rated cafe in Ghardimaou, awaits your visit! Nestled in Ghardimaou, VALORIA boasts 5 stars based on 1 review. VALORIA offers mouthwatering food and drinks, making it a must-try. Its precise coordinates are (36.4515944, 8.4333415) in Ghardimaou.
+BERRAIS is a highly rated restaurant located in CCXR+FGH BERRAIS, Ghardimaou, Tunisia. It has received positive reviews and offers a variety of dining options. The restaurant is open daily from 12 PM to 10 PM and is situated at coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1633,12 +2050,57 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Cafetirya located at CCWR+QC2. This top-rated destination is perfect for Cafe lovers. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9tirya/data=!4m7!3m6!1s0x12fafd020d537c75:0xb68fa5f209f5fc41!8m2!3d36.4468852!4d8.4410202!16s%2Fg%2F11fy4hgdgt!19sChIJdXxTDQL9-hIRQfz1CfKlj7Y?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafétirya is a cafe located in Ghardimaou, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open daily from 6am to 9pm, and is located at CCWR+QC2.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Cafetirya located in Gahrdimaou, known for its exceptional ambiance for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore I ghardimaou, a popular tourist attraction known for its scenic beauty and rich history.
+Mid-Morning: Visit the highly-rated BERRAIS restaurant for a delightful dining experience, savoring various cuisines.
+Midday: Enjoy a relaxing stroll through Ghardimaou, discovering the town's traditional pottery and weaving.
+Afternoon: Engage in some outdoor activities at mshwy nbyl, a barbecue restaurant offering delectable dishes.
+Evening: Indulge in local cuisine at Fast food, a highly-rated restaurant serving an array of delectable dishes.
+Night: Experience the lively ambiance of STATION TAXI GHARDIMAOU, a taxi station offering transportation services and bustling with local culture.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bejjoudi, located in Ghardimaou, Tunisia (36.4515944, 8.4333415), is a highly-rated cafe (4.0 stars from 7 reviews). Open 24 hours a day, it offers a wide variety of coffee and tea drinks, as well as a selection of snacks and pastries.
+BERRAIS is a highly rated restaurant located in CCXR+FGH BERRAIS, Ghardimaou, Tunisia. It has received positive reviews and offers a variety of dining options. The restaurant is open daily from 12 PM to 10 PM and is situated at coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1736,14 +2198,57 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out Cafe Zigavou located at CCXP+HRJ Cafe Zigavou, Rue Farhat Hached, Ghardimaou. 
-This Cafe lovers' paradise offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Café Zigavou is a café located in ghardimaou, Tunisia. Offering an authentic ambiance and a warm welcome, this café is the perfect place to relax and enjoy a cup of coffee or tea. Café Zigavou is known for its friendly atmosphere, its tasty food, and its delicious drinks. Don't miss the opportunity to visit this café located at the following coordinates: (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>If you're in Ghardimaou and craving a top-rated cafe with a diverse selection of offerings, where can you find the must-visit Cafe Zigavou?</t>
+          <t>Day Plan:
+Morning: Exploring the historic town of Ghardimaou, known for its traditional pottery and weaving.
+Mid-Morning: Trying local cuisine at BERRAIS, a highly rated restaurant offering a variety of dining options.
+Midday: Visiting I ghardimaou, a popular tourist attraction offering a unique cultural experience and beautiful scenery.
+Afternoon: Enjoying a barbecue meal at mshwy nbyl, a restaurant with a 5.0 star rating based on one review.
+Evening: Relaxing at Fast food, a delivery restaurant offering a satisfying culinary experience with a 4.0 rating based on one review.
+Night: Exploring Station des Louages, a taxi station that offers convenient transportation services in the area, and experiencing the local nightlife.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Neji (habib) is a cafe located in Ghardimaou, Tunisia. It has a rating of 4.5 out of 5 based on 2 reviews. The cafe offers a variety of services, including food and drinks. It is located at the coordinates (36.4515944, 8.4333415).
+BERRAIS is a highly rated restaurant located in CCXR+FGH BERRAIS, Ghardimaou, Tunisia. It has received positive reviews and offers a variety of dining options. The restaurant is open daily from 12 PM to 10 PM and is situated at coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1845,12 +2350,57 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in Ghardimaou and looking for a great cafe, check out Cafe Bollar located at CCXQ+6RH. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-21:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Bollar/data=!4m7!3m6!1s0x12fafcfd9b5c3ca5:0x2485c078b165e5e8!8m2!3d36.4480533!4d8.4396037!16s%2Fg%2F11fy49jczz!19sChIJpTxcm_38-hIR6OVlsXjAhSQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 000 000.</t>
+          <t>Cafe Bollar is a cafe located in Ghardimaou, Tunisia. It is open from 6:00 AM to 9:00 PM and is closed on Mondays. The cafe has a rating of 4.0 out of 5 stars and offers a variety of coffee drinks, pastries, and sandwiches. The cafe is located at CCXQ+6RH Cafe Bollar, Ghardimaou.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find the highly-rated Cafe Bollar, known for their diverse selection of cafe items in a cozy atmosphere?</t>
+          <t>Day Plan:
+Morning: Exploring I ghardimaou, a popular tourist attraction known for its natural beauty and historical significance.
+Mid-Morning: Trying local cuisine at Fast Food, a restaurant offering a variety of dishes with positive reviews.
+Midday: Visiting Relais telephonique, a gas station offering various services and situated at convenient coordinates.
+Afternoon: Taking a guided tour of Station des Louages, a taxi station providing transportation services in the area.
+Evening: Enjoying a relaxing evening at STATION TAXI GHARDIMAOU, a taxi station offering 24/7 services.
+Night: Experiencing cultural immersion at Café Tom, a highly-rated café open 24 hours and serving a wide variety of drinks and snacks.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Café Tom** is a highly-rated café located in Ghardimaou. Open 24 hours a day, it is a popular destination for locals and visitors alike. The café offers a wide variety of drinks and snacks, including coffee, tea, pastries, and sandwiches. It is located at (36.4515944, 8.4333415), making it easy to access from anywhere in the city.
+Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1948,12 +2498,57 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great place to grab a bite, head to Cafe Neji, located at CCWQ+XVF. This top-rated cafe is perfect for those looking to enjoy a delicious cup of coffee and some great conversation. With a rating of 4.5, it's a must-visit spot. To get to Cafe Neji, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Cafe Neji (habib) is a cafe located in Ghardimaou, Tunisia. It has a rating of 4.5 out of 5 based on 2 reviews. The cafe offers a variety of services, including food and drinks. It is located at the coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe with a cozy atmosphere and a popular spot for locals in Ghardimaou?</t>
+          <t>Day Plan:
+Morning: Exploring the historic town of Ghardimaou
+Mid-Morning: Trying local cuisine at Fast Food restaurant
+Midday: Visiting the fascinating I ghardimaou tourist attraction
+Afternoon: Enjoying a scenic walk at the local park
+Evening: Relaxing with a soothing spa treatment at a local hotel
+Night: Experiencing cultural immersion at the traditional pottery and weaving market</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Salon de the Elfoundou lfwndw is a cafe located in Ghardimaou, Tunisia. It is open from 06:10 to 00:00. The cafe has a rating of 4.9 out of 5 stars and offers a variety of drinks and snacks. It is located at coordinates (36.4515944, 8.4333415).
+Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2055,12 +2650,57 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out mqh~ lns located at CCWP+8JP mqh~ lns, Ghardimaou. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>**mqh~ lns** is a cafe located in Ghardimaou, Tunisia. It offers coffee and other drinks, and has a rating of 4.0. It is open from 6:00am to 11:00pm, and is closed on Sundays.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a top-rated Café with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring I ghardimaou
+Mid-Morning: Trying local cuisine at mshwy nbyl
+Midday: Visiting Restaurant Khaled
+Afternoon: Taking a guided tour of Ghardimaou
+Evening: Relaxing with a traditional pottery and weaving workshop
+Night: Enjoying a traditional dinner at Nestled in ghardimaou</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Cafe black and white" is a well-rated cafe located in Ghardimaou, Tunisia. With a 4.7-star rating and 24/7 opening hours, this cafe is a great spot to grab a quick bite or drink. It is located at the coordinates (36.4515944, 8.4333415) and can be identified with the place ID ChIJu8IyFQL9-hIRK3ONqRwj9WM.
+Restaurant Khaled is located in Ghardimaou, Tunisia, at coordinates (36.4515944, 8.4333415). It offers a variety of dining options and has a rating of 4.0 out of 5 stars. The restaurant's phone number is 28 478 817, and its address is FC2V+8QJ restaurant khaled, P6, Ghardimaou.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2162,12 +2802,57 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out Kamel located at FC7V+J3X Kamel, Branssia, Ghardimaou. This popular spot has a rating of 4.0 and offers a must-visit experience for Cafe lovers. Kamel's hours of operation are Ouvert 24h/24, but it's worth noting that they are closed on unspecified days. To get there, simply use the provided GPS coordinates: (36.4515944, 8.4333415). For more information, be sure to visit their website or give them a call.</t>
+          <t>Kamel is a 24-hour cafe located in Branssia, Ghardimaou. It has a 4.0-star rating from 2 reviews. The cafe's owner is named "Kamel (proprietaire)." The cafe offers a cozy ambiance and a casual dining experience. Its geolocation is (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>If you're in Ghardimaou seeking an exceptional Cafe experience, where can you find Kamel, the top-rated establishment in the area?</t>
+          <t>Day Plan:
+Morning: Exploring I ghardimaou, a popular tourist attraction known for its beautiful scenery and rich history.
+Mid-Morning: Trying local cuisine at Restaurant Khaled, known for its variety of dining options and positive feedback from visitors.
+Midday: Visiting Ghardimaou Tiger Cafe, located in the heart of Ghardimaou, for a cozy and welcoming atmosphere where you can relax and enjoy a cup of coffee or tea.
+Afternoon: Enjoying the scenic views at Station des Louages, which offers convenient transportation services in the area.
+Evening: Participating in the event or activity at Venue, which may include live music, cultural performances, or other entertainment options.
+Night: Relaxing with a spa treatment at [Spa/Hotel] to rejuvenate and unwind after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ghardimaou Tiger Cafe is located in the heart of Ghardimaou, Tunisia, on Av. Habib Bourguiba. It offers a cozy and welcoming atmosphere, making it a great place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and pastries, and it has free Wi-Fi for its customers. With its convenient location and friendly staff, Ghardimaou Tiger Cafe is a great place to stop for a quick bite or just to relax and chat with friends.
+Restaurant Khaled is located in Ghardimaou, Tunisia, at coordinates (36.4515944, 8.4333415). It offers a variety of dining options and has a rating of 4.0 out of 5 stars. The restaurant's phone number is 28 478 817, and its address is FC2V+8QJ restaurant khaled, P6, Ghardimaou.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2261,12 +2946,63 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great place to eat, check out Fast food, conveniently located at CCRJ+R82 Unnamed Road. This top-rated restaurant offers a range of Restaurant categories to choose from and is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. The coordinates are: 36.4515944, 8.4333415.</t>
+          <t>Fast Food is a highly-rated restaurant located in Ghardimaou, Tunisia. It offers a wide range of delicious food options, making it a great choice for both locals and tourists alike. The restaurant is conveniently situated at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). With its excellent reviews and prime location, Fast Food is definitely worth a visit for anyone looking for a great meal.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a top-rated restaurant with a 5.0 rating and a wide variety of Restaurant categories?</t>
+          <t>Day Plan:
+Morning:
+- Exploring Escobar Cafe: Start the day with a local coffee experience and pastries at Escobar Cafe, known for its cozy ambiance and friendly staff. (36.4515944, 8.4333415)
+Mid-Morning:
+- Visiting I ghardimaou: Immerse yourself in history and culture by visiting I ghardimaou, a popular tourist attraction showcasing the town's rich heritage. (36.44788, 8.4413)
+Midday:
+- Trying local cuisine at Fast Food: Satisfy your taste buds with a delightful lunch at Fast Food, a restaurant serving a variety of dishes with high ratings. (36.4515944, 8.4333415)
+Afternoon:
+- Relaxing with a scenic walk at Station Shell: Enjoy a picturesque stroll along the gas station, offering beautiful views and a chance to soak in the local atmosphere. (36.4441862, 8.4372077)
+Evening:
+- Experiencing cultural immersion at Station Taxi Ghardimaou: Engage with locals and gain insights into the town's transportation system by visiting Station Taxi Ghardimaou. (FC2R+3F2, Ghardimaou)
+Night:
+- Participating in a local event at Station des Louages: Immerse yourself in the vibrant local culture by attending an event or activity at Station des Louages. (FC2V+977, Ghardimaou)</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escobar Cafe is a cafe located in Ghardimaou. It's a popular spot for locals and tourists alike, offering a variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its relaxed atmosphere. It's situates at (36.4515944, 8.4333415).
+Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2364,12 +3100,57 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou, mqh~ l'jyl is a top-rated Cafe located at mqh~ l'jyl, 0000,El ghorra,ghardimaou. With a 5.0 rating, it's a must-visit spot for Cafe lovers. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D8%A3%D8%AC%D9%8A%D8%A7%D9%84%E2%80%AD/data=!4m7!3m6!1s0x12fae10c15d8d31f:0x38c12fba05b3f3e7!8m2!3d36.588438!4d8.4174346!16s%2Fg%2F11jsf4bcck!19sChIJH9PYFQzh-hIR5_OzBbovwTg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>mqh~ l'jyl is a highly-rated café located in ghardimaou, Tunisia. It offers a cozy and inviting atmosphere, perfect for relaxing and enjoying a cup of coffee or tea. The café's prime location makes it easily accessible for both locals and visitors alike.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe with a 5.0 rating, located in Ghardimaou?</t>
+          <t>Day Plan:
+Morning: Explore Ghardimaou, a small town known for its traditional pottery and weaving.
+Mid-Morning: Visit Cafe Zigavou, a 4-star-rated cafe offering a variety of food and drinks.
+Midday: Try local cuisine at Resto Top Five, a highly-rated restaurant with a delightful ambiance and an extensive menu.
+Afternoon: Visit the Station des Louages for convenient transportation services in the area.
+Evening: Enjoy a relaxing evening with a massage at a local spa or hotel.
+Night: Experience cultural immersion at I ghardimaou, a popular tourist attraction known for its beautiful scenery and rich history.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zigavou is a 4-star-rated cafe located in Ghardimaou, Tunisia. It is open from 6 AM to midnight every day and offers a variety of food and drinks. The cafe is located at the coordinates (36.4515944, 8.4333415).
+Welcome to Resto Top Five, your ultimate dining destination in ghardimaou. Our restaurant, ideally located at (36.4515944, 8.4333415), offers a delightful ambiance and an extensive menu that caters to every palate. With a rating of 4.0 out of 5 and positive reviews, our commitment to delivering exceptional dining experiences is evident.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2463,14 +3244,59 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Ghardimaou Tiger cafe located at CCWP+2MG Ghardimaou Tiger cafe, Av. Habib Bourguiba, Ghardimaou. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: nan, but closed on []. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Ghardimaou Tiger Cafe is a cafe located in Ghardimaou, Tunisia, with coordinates (36.4515944, 8.4333415). It offers a cozy ambiance and serves a variety of beverages and snacks. The cafe also hosts live music events and has received positive reviews for its friendly staff and quality offerings.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>What top-rated café in Ghardimaou boasts a 4.0 rating and caters specifically to those who love cozy coffee atmospheres?</t>
+          <t>Day Plan:
+Morning: Exploring I ghardimaou for its unique cultural experience and beautiful scenery.
+Mid-Morning: Trying local cuisine at BERRAIS, a highly rated restaurant known for its dining options.
+Midday: Relaxing with a coffee and pastries at Cafe Bollar, which has a cozy atmosphere and a variety of beverages and treats.
+Afternoon:
+- Option 1: Shopping for traditional pottery and textiles at the local market in Ghardimaou.
+- Option 2: Enjoying scenic views at Station Shell while refueling the vehicle.
+Evening: Experiencing cultural immersion at Station des Louages by observing the bustling transportation hub and interacting with locals.
+Night: Participating in a guided tour of Station TAXI GHARDIMAOU to learn about the local taxi services and transportation system.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bollar is a cafe located in Ghardimaou, Tunisia. It is open from 6:00 AM to 9:00 PM and is closed on Mondays. The cafe has a rating of 4.0 out of 5 stars and offers a variety of coffee drinks, pastries, and sandwiches. The cafe is located at CCXQ+6RH Cafe Bollar, Ghardimaou.
+BERRAIS is a highly rated restaurant located in CCXR+FGH BERRAIS, Ghardimaou, Tunisia. It has received positive reviews and offers a variety of dining options. The restaurant is open daily from 12 PM to 10 PM and is situated at coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2568,12 +3394,63 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, check out Cafe Rahoui located at FC2V+2HP Cafe Rahoui, Ghardimaou. It offers a range of Cafe options and has a rating of 4.0 based on 1 reviews. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, call them at 21 443 037.</t>
+          <t>Cafe Rahoui is a 4-star rated cafe located in Ghardimaou, Tunisia. Its exact location is at (36.4515944, 8.4333415) with phone number 21 443 037. Unfortunately, there is no additional information about its offerings, website, or owner.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Which top-rated Cafe in Ghardimaou with a 4.0 rating based on one review is known for its ambiance and delectable Cafe options, located at specific GPS coordinates?</t>
+          <t>Day Plan:
+**Morning:**
+- Explore I ghardimaou, a popular tourist attraction with beautiful scenery and rich history.
+**Mid-Morning:**
+- Visit Cafe La Gare, a cozy and inviting cafe, for a morning pick-me-up.
+**Midday:**
+- Indulge in delicious local cuisine at Fast Food, a highly-rated restaurant with a wide range of options.
+**Afternoon:**
+- Engage in outdoor activities such as hiking or cycling in the scenic surroundings of Ghardimaou.
+**Evening:**
+- Visit Station Shell, a gas station with a car wash and grocery store, for some light refreshments and to prepare for the evening.
+**Night:**
+- Experience the vibrant atmosphere at STATION TAXI GHARDIMAOU, a taxi station that offers transportation services and local insights.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in the heart of Ghardimaou, Cafe La gare welcomes you in a cozy and inviting atmosphere. Located at coordinates (36.4481985, 8.4381442), this cafe offers a tranquil ambiance where you can relax and unwind. Whether you seek a morning pick-me-up or an evening respite, Cafe La gare has got you covered from 6 AM to 9 PM daily.
+Fast Food is a highly-rated restaurant located in Ghardimaou, Tunisia. It offers a wide range of delicious food options, making it a great choice for both locals and tourists alike. The restaurant is conveniently situated at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). With its excellent reviews and prime location, Fast Food is definitely worth a visit for anyone looking for a great meal.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2671,12 +3548,63 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cafe, check out Cafe Rhawa at FCFX+66F. This top-rated destination is perfect for cafe lovers and offers a range of cafe options to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Cafe Rhawa, nestled in Ghardimaou at the coordinates (36.4515944, 8.4333415), is a popular destination with a rating of 4.0 stars. While the website and phone number are not listed, Café Rhawa is open from 6 AM to 8 AM during the week. Its main category is a Cafe, offering a cozy ambiance for patrons to enjoy their beverages.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>What is the name of the highly rated cafe in Ghardimaou that offers a wide selection of cafe options and can be easily located using the provided GPS coordinates?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the cultural heritage of Ghardimaou by visiting the I ghardimaou tourist attraction (4.0 rating).
+**Mid-Morning:**
+* Indulge in a delightful dining experience at Resto Top Five (4.0 rating), known for its extensive menu and inviting ambiance.
+**Midday:**
+* Enjoy a savory barbecue lunch at mshwy nbyl (5.0 rating), featuring authentic Tunisian flavors.
+**Afternoon:**
+* Engage in outdoor recreation at Fast food (4.0 rating), offering convenient food delivery and a satisfying culinary experience.
+**Evening:**
+* Take a leisurely stroll through the charming streets of Ghardimaou, soak in the local atmosphere, and explore the vibrant Station des Louages (5.0 rating).
+**Night:**
+* Unwind and relax at your preferred hotel or spa, indulging in soothing activities like a massage or enjoying scenic views from your room.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escobar Cafe is located in ghardimaou at FC2M+R98. It has a 4.0 rating and offers cafe services.
+Welcome to Resto Top Five, your ultimate dining destination in ghardimaou. Our restaurant, ideally located at (36.4515944, 8.4333415), offers a delightful ambiance and an extensive menu that caters to every palate. With a rating of 4.0 out of 5 and positive reviews, our commitment to delivering exceptional dining experiences is evident.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2770,14 +3698,57 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Commercio located at CCXP+VMP Commercio, Ghardimaou. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Commercio/data=!4m7!3m6!1s0x12fafd403c199693:0xc9a916b0e2296c07!8m2!3d36.4497041!4d8.436701!16s%2Fg%2F11hyjvv06f!19sChIJk5YZPED9-hIRB2wp4rAWqck?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Commercio, located in Ghardimaou (36.4515944, 8.4333415), is a cafe that offers a cozy and welcoming ambiance. With its 4.0 rating, it has garnered positive reviews from visitors. Currently, it is owned by Commercio (proprietaire). While specific details about its menu and services are not provided in the description, it is recommended to check its official website or visit the cafe in person for more information.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>What cafe located in the CCXP+VMP Commercio complex in Ghardimaou with GPS coordinates 36.4515944, 8.4333415 is highly rated (4.0) and specializes in Cafe?</t>
+          <t>Day Plan:
+Morning: Visit I ghardimaou for a unique cultural experience and soak in its beautiful scenery and rich history.
+Mid-Morning: Head to Fast food for a satisfying culinary experience and savor their delectable dishes.
+Midday: Explore the bustling market of Ghardimaou and find unique souvenirs and local crafts.
+Afternoon: Indulge in outdoor activities at Station Shell, enjoy a refreshing car wash, and stock up on essentials at their grocery store.
+Evening: Relish a barbecue dinner at mshwy nbyl and enjoy their highly-rated dishes.
+Night: Embark on a guided tour of Station des Louages to learn about its transportation services and immerse yourself in the local culture.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Situated in Ghardimaou, Café Jdidi is a well-rated (4.8/5 from 6 reviews) café that primarily serves coffee and other café offerings. It is open daily from 6 AM to 11 PM and is located at coordinates (36.4515944, 8.4333415).
+Restaurant Khaled is located in Ghardimaou, Tunisia, at coordinates (36.4515944, 8.4333415). It offers a variety of dining options and has a rating of 4.0 out of 5 stars. The restaurant's phone number is 28 478 817, and its address is FC2V+8QJ restaurant khaled, P6, Ghardimaou.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2871,12 +3842,57 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Cafe, check out HAFSOUNI'S CAFE located at FC72+5QF HAFSOUNI'S CAFE, Ghardimaou. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/HAFSOUNI%27S+CAF%C3%89/data=!4m7!3m6!1s0x12fafd003555432f:0xc442b5bf177a0d9b!8m2!3d36.4629314!4d8.401915!16s%2Fg%2F11vrzp7xg3!19sChIJL0NVNQD9-hIRmw16F7-1QsQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>HAFSOUNI'S CAFE is a cafe located at FC72+5QF HAFSOUNI'S CAFE, Ghardimaou, Tunisia. It is a well-rated cafe with a 5.0 rating based on 1 review. The cafe offers a variety of services and amenities, including free Wi-Fi, outdoor seating, and a variety of food and drink options. It is located at the coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe with a wide selection of options in Ghardimaou, offering an exceptional experience with a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Exploring Ghardimaou town and its traditional pottery and weaving.
+Mid-Morning: Trying local cuisine at Fast Food, known for its delicious food options.
+Midday: Visiting the popular tourist attraction I ghardimaou, offering a unique cultural experience and beautiful scenery.
+Afternoon: Enjoying the scenic views at Cafe net Sediri, which offers a 5-star rating on Google and a relaxing atmosphere.
+Evening: Participating in the event/activity at Station des Louages, a highly-rated transportation service in the area.
+Night: Relaxing with a spa treatment at a local hotel or spa to rejuvenate after a day of exploring.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe net Sediri is a cafe located in Ghardimaou, Tunisia. It is rated 5.0 out of 5 stars on Google and has 1 review. The cafe's main category is cafe and it is located at the coordinates (36.4515944, 8.4333415). The cafe's phone number is 21 264 743.
+Fast Food is a highly-rated restaurant located in Ghardimaou, Tunisia. It offers a wide range of delicious food options, making it a great choice for both locals and tourists alike. The restaurant is conveniently situated at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). With its excellent reviews and prime location, Fast Food is definitely worth a visit for anyone looking for a great meal.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2974,12 +3990,57 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Escobar Cafe located at FC2M+R98 Escobar Cafe, Ghardimaou. This top-rated destination is perfect for Cafe lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>The Escobar Cafe is a cafe located in Escobar Cafe, Ghardimaou, Tunisia. It has a rating of 4.0 out of 5 stars on Google reviews. The cafe is known for its coffee and its cozy atmosphere. It is a great place to relax and enjoy a cup of coffee. The coordinates of the cafe are (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>If you seek a highly-rated Cafe destination in Ghardimaou, what is the name and location, as indicated by its GPS coordinates, that promises an unforgettable experience?</t>
+          <t>Day Plan:
+Morning: Exploring Ghardimaou town, taking in its traditional pottery and weaving.
+Mid-Morning: Visiting MAC DOLY for a local dining experience.
+Midday: Relaxing with a spa treatment at a local hotel.
+Afternoon: Trying local cuisine at mshwy nbyl, renowned for its barbecue.
+Evening: Taking a guided tour of I ghardimaou, a popular tourist attraction for its cultural experience and scenery.
+Night: Enjoying scenic views at Station des Louages, while savoring the local cuisine.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bejjoudi is a cafe located in Ghardimaou, Tunisia. It has a rating of 4.0 on Google and is open 24 hours a day. No other information is available about this cafe.
+MAC DOLY is a Restaurant located in ghardimaou, Tunisia at the coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3081,14 +4142,57 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>Nestled in the heart of ghardimaou, Cafe net Sediri is a haven for cafe enthusiasts. Frequented by locals and visitors alike, this top-rated destination offers a cozy ambiance, aromatic beverages, and delectable treats. 
-With a rating of 5.0, it's a must-visit spot for cafe lovers seeking a perfect cup of coffee or a delightful snack. The cafe is conveniently located at FC2J+PJG Cafe net Sediri, making it easily accessible. Although its workday hours are not specified, it's highly recommended to call them at 21 264 743 before your visit to confirm their availability.
-For more information and updates, visit their website or contact the friendly staff at Cafe net Sediri. Indulge in a cup of your favorite brew and savor the vibrant atmosphere at this charming cafe in ghardimaou.</t>
+          <t>Cafe net Sediri is a cafe located in Ghardimaou, Tunisia. It is rated 5.0 out of 5 stars on Google and has 1 review. The cafe's main category is cafe and it is located at the coordinates (36.4515944, 8.4333415). The cafe's phone number is 21 264 743.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated cafe known for its cozy ambiance and top-rated coffee in the heart of Ghardimaou?</t>
+          <t>Day Plan:
+Morning: Explore the cultural charm of I ghardimaou, a popular tourist attraction offering a unique blend of history and natural beauty.
+Mid-Morning: Indulge in the savory flavors of Tunisian cuisine at Fast Food, a top-rated restaurant serving an array of delectable dishes.
+Midday: Visit Station Shell, a convenient gas station offering fuel, car wash services, and a small grocery store for your essential needs.
+Afternoon: Try out the delicious barbecue at mshwy nbyl, a restaurant with excellent reviews and a cozy ambiance.
+Evening: Take a stroll through Ghardimaou, a small town rich in traditional pottery and weaving, and discover its unique cultural heritage.
+Night: Relax and unwind at Station des Louages, a transportation hub where you can enjoy convenient transportation services and end your day on a tranquil note.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+VALORIA, a top-rated cafe in Ghardimaou, awaits your visit! Nestled in Ghardimaou, VALORIA boasts 5 stars based on 1 review. VALORIA offers mouthwatering food and drinks, making it a must-try. Its precise coordinates are (36.4515944, 8.4333415) in Ghardimaou.
+Fast Food is a highly-rated restaurant located in Ghardimaou, Tunisia. It offers a wide range of delicious food options, making it a great choice for both locals and tourists alike. The restaurant is conveniently situated at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). With its excellent reviews and prime location, Fast Food is definitely worth a visit for anyone looking for a great meal.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3190,14 +4294,57 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cafe, check out VALORIA located at CCXV+7MG VALORIA, Ghardimaou. 
-This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, call them at 21 806 061.</t>
+          <t>VALORIA, a top-rated cafe in Ghardimaou, awaits your visit! Nestled in Ghardimaou, VALORIA boasts 5 stars based on 1 review. VALORIA offers mouthwatering food and drinks, making it a must-try. Its precise coordinates are (36.4515944, 8.4333415) in Ghardimaou.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a top-rated cafe known for its coffee and excellent customer reviews?</t>
+          <t>Day Plan:
+Morning: Exploring Ghardimaou's Cultural Heritage at I ghardimaou
+Mid-Morning: Trying Local Cuisine at MAC DOLY
+Midday: Relaxing with a Scenic View at Fast food
+Afternoon: Experiencing Nature and Outdoor Activities at mshwy nbyl
+Evening: Shopping for Local Crafts at Ghardimaou Market
+Night: Taking a Guided Tour of Station des Louages for Historical Insight</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Escobar Cafe is a cafe located in Ghardimaou. It's a popular spot for locals and tourists alike, offering a variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its relaxed atmosphere. It's situates at (36.4515944, 8.4333415).
+MAC DOLY is a Restaurant located in ghardimaou, Tunisia at the coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3295,14 +4442,57 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out I ghardimaou. 
-This top-rated destination is perfect for Attraction touristique lovers. 
-With a rating of 4.0, it's a must-visit spot. It's located at CCWR+MJ3 I ghardimaou, Rue Ali belhouane, Ghardimaou. To get there, use these GPS coordinates: 36.44788, 8.4413.</t>
+          <t>I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>What must-visit destination is renowned for its appeal to Attraction touristique enthusiasts in Ghardimaou, boasting a high rating and a convenient location?</t>
+          <t>Day Plan:
+Morning: Exploring mqh~ lns, a charming cafe with a cozy ambiance and delicious coffee options.
+Mid-Morning: Visiting I ghardimaou, a popular tourist attraction showcasing the town's rich cultural heritage and stunning scenery.
+Midday: Trying local cuisine at Fast Food, a renowned restaurant offering a wide array of delectable dishes.
+Afternoon: Taking a guided tour of Relais telephonique, a gas station with historical significance and intriguing insights into the town's past.
+Evening: Enjoying a scenic view at Ghardimaou, a small town with picturesque landscapes and a tranquil atmosphere.
+Night: Relaxing at a traditional hammam, indulging in a rejuvenating and authentic cultural experience.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**mqh~ lns** is a cafe located in Ghardimaou, Tunisia. It offers coffee and other drinks, and has a rating of 4.0. It is open from 6:00am to 11:00pm, and is closed on Sundays.
+Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3400,12 +4590,57 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a cozy spot to relax, head over to Escobar Cafe. Located at FC2M+R98, Escobar Cafe boasts a rating of 4.0, making it a must-visit destination for cafe lovers. This top-rated cafe offers a range of options to choose from, so you're sure to find something to satisfy your cravings.</t>
+          <t>Escobar Cafe is a cafe located in Ghardimaou. It's a popular spot for locals and tourists alike, offering a variety of coffee, tea, and pastries. The cafe is also known for its friendly staff and its relaxed atmosphere. It's situates at (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a highly-rated (4.0 stars) cozy cafe that offers a variety of options?</t>
+          <t>Day Plan:
+Morning: Explore I ghardimaou for its cultural experience and beautiful scenery.
+Mid-Morning: Try local cuisine at Resto Top Five for a delightful culinary experience.
+Midday: Visit the gas station Relais telephonique for any necessary automotive services or fuel.
+Afternoon: Relax with a barbecue meal at mshwy nbyl, enjoying the flavors of the local cuisine.
+Evening: Take a stroll through the scenic streets of Ghardimaou, appreciating the traditional pottery and weaving.
+Night: Experience the lively atmosphere at Ghardimaou Tiger Cafe, enjoying live music and beverages with friendly locals.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ghardimaou Tiger Cafe is a cafe located in Ghardimaou, Tunisia, with coordinates (36.4515944, 8.4333415). It offers a cozy ambiance and serves a variety of beverages and snacks. The cafe also hosts live music events and has received positive reviews for its friendly staff and quality offerings.
+Resto Top Five, located in the city of Ghardimaou, is a restaurant offering a wide range of culinary delights. Situated at coordinates (36.4515944, 8.4333415), the resto is open from 09:00 to 23:00 every day except Fridays. With a rating of 4.0 out of 5 based on 8 reviews, Resto Top Five is a popular destination for food enthusiasts.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3511,14 +4746,57 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a top-rated Cafe, head to Cafe Tom located at FF32+246 Cafe Tom, Unnamed Road. 
-This highly-rated spot with a rating of 4.8 offers a wide range of options for Cafe lovers. 
-It's open 24h/24, so you can drop by anytime. For more details, call them at 20 176 530.</t>
+          <t>Cafe Tom is a top-rated cafe in Ghardimaou, Tunisia, with a 4.8-star rating based on 12 reviews. It is open 24 hours a day and is located at 36.4515944, 8.4333415. Cafe Tom offers a cozy ambiance and delicious food and drinks, making it a perfect spot for a relaxing or social gathering.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in Ghardimaou that is open 24 hours and offers a variety of options?</t>
+          <t>Day Plan:
+Morning: Explore the cultural significance of Ghardimaou at the I ghardimaou historical site.
+Mid-Morning: Indulge in the tantalizing local cuisine at Resto Top Five, renowned for its exceptional dining experiences.
+Midday: Visit Station Shell for a quick pitstop to refuel and prepare for the afternoon's adventures.
+Afternoon: Engage in outdoor activities like hiking or cycling in the scenic surroundings of Ghardimaou.
+Evening: Relax with a rejuvenating massage at a local spa or hotel to soothe your muscles after the day's explorations.
+Night: Experience the vibrant atmosphere of STATION TAXI GHARDIMAOU, a bustling hub where you can interact with locals and fellow travelers.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rhawa, nestled in Ghardimaou at the coordinates (36.4515944, 8.4333415), is a popular destination with a rating of 4.0 stars. While the website and phone number are not listed, Café Rhawa is open from 6 AM to 8 AM during the week. Its main category is a Cafe, offering a cozy ambiance for patrons to enjoy their beverages.
+Welcome to Resto Top Five, your ultimate dining destination in ghardimaou. Our restaurant, ideally located at (36.4515944, 8.4333415), offers a delightful ambiance and an extensive menu that caters to every palate. With a rating of 4.0 out of 5 and positive reviews, our commitment to delivering exceptional dining experiences is evident.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3620,12 +4898,57 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you find yourself in ghardimaou and are looking for a great dining experience, look no further than Resto Top Five located at CCXQ+57J Resto Top Five, Av. Hedi Chaker. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:00-23:00, but closed on vendredi. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/Resto+Top+Five/data=!4m7!3m6!1s0x12fafcfdaf02f04b:0xf53f9932cca1a17b!8m2!3d36.4479716!4d8.4381367!16s%2Fg%2F11ddx8mk6q!19sChIJS_ACr_38-hIRe6GhzDKZP_U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Resto Top Five, located in the city of Ghardimaou, is a restaurant offering a wide range of culinary delights. Situated at coordinates (36.4515944, 8.4333415), the resto is open from 09:00 to 23:00 every day except Fridays. With a rating of 4.0 out of 5 based on 8 reviews, Resto Top Five is a popular destination for food enthusiasts.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated dining experience with a diverse menu and convenient location in Ghardimaou?</t>
+          <t>Day Plan:
+Morning: Exploring the historical significance of Ghardimaou, a town known for its traditional pottery and weaving.
+Mid-Morning: Trying local cuisine at Resto Top Five, known for its wide range of culinary delights and positive reviews.
+Midday: Visiting I ghardimaou, a popular tourist attraction offering a unique cultural experience and beautiful scenery.
+Afternoon: Enjoying a barbecue lunch at mshwy nbyl, known for its delectable dishes and 5.0-star rating.
+Evening: Participating in an outdoor activity at a scenic spot in Ghardimaou, taking in the breathtaking views and enjoying the natural beauty.
+Night: Relaxing with a traditional Hammam experience at a spa or hotel, rejuvenating the body and immersing in local customs.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Zigavou is a café located in ghardimaou, Tunisia. Offering an authentic ambiance and a warm welcome, this café is the perfect place to relax and enjoy a cup of coffee or tea. Café Zigavou is known for its friendly atmosphere, its tasty food, and its delicious drinks. Don't miss the opportunity to visit this café located at the following coordinates: (36.4515944, 8.4333415).
+Resto Top Five, located in the city of Ghardimaou, is a restaurant offering a wide range of culinary delights. Situated at coordinates (36.4515944, 8.4333415), the resto is open from 09:00 to 23:00 every day except Fridays. With a rating of 4.0 out of 5 based on 8 reviews, Resto Top Five is a popular destination for food enthusiasts.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3735,12 +5058,57 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cup of coffee, check out Salon de the Elfoundou lfwndw located at FC3H+327 Salon de the Elfoundou lfwndw, P6, Ghardimaou. This top-rated cafe is perfect for coffee lovers and offers a range of drinks to choose from. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 06:10-00:00, but closed on none. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.facebook.com/profile.php?id=61555820297118&amp;mibextid=LQQJ4d&amp;refid=17&amp;ft_=encrypted_tracking_data.0AY9ofXRBz_knnIV9A9056-bkOkFks0pWRWdtl2nyUBDXZ6HFc5YsLtinlDEM1RJsqfG_MnFbQdj2VaZGaPKrANf5QJOkHuHLaPEFfUkUgUypTQXCpgN4wzhR-Q1UwX28p68Tx5N_LdRdvEqAS0MxdxJgbSA067UTmXhtQFyqynFAXMly3TXNXr8zI0JbJwbjWANVLT7c2LZMkMHOD0xxZwW2XOOSf44UuFBobtVjPcWbmA6mfynl8hnvgFoki_utV8fSGHgh_MgL1i2ppga91yutgRT3t28v2LxW6SlB3yFuc8CxEIRmpcKZLmkjgfGM-bkIZhxdn1u5ju6CCsS-do2i8GA62nMoaFoR8w16RCLw7KqNuAKbJNyamxwcnW6fObzOk0PpDIMa7rdPE58OVWtaqbpwsrfDF9OLOfwOHaCOkeOXg9zT_W57PtwXULdXIkUPlP0Z6kwmcYOpRO-KY60r5GXM3PI2TLLAu7tsmRiokK8Tr11I5z1cWkj4tbKUcRMaIXDNrlGPgULcJjlEclWmlHLeLbXdF-Ryd4m4eiRZC3eDH0m0l6OpQ7cXxlNKHDDRzAL2Dr2dYYpW8U1OfjVWOJckj1Ve_oS6ccSgFaDPW91ae42BZuVOAsslHNcTI4LH8E7d6T5hmV_w8rzf2v-DkH1FEwyY9VSG_YH6gOK-AcBv1RpAsdj1XcnODSVSnsZ7tY2OybpyFyzNdZ-OI_DI-n7fryDvjrXyEslFqPrC19DMHDbzf2EGrEo7PfvJbkYQ4PdyRf6nHuDU2fZcGDX9dGQxvxPX8LWd-0tlHcbZyyz-dJtRb100gBfVWy_HQhi_UNvHSXSDrphB_e02RNJzozTCU__Fo3g3P2rxinEWD4cPZaEAeRYdC6eE-s_CE1XBF7OdjMHvw5gnQo6RjT_aJBQ7YiHpQZvIbSp1zLXNjO7P8_Nr0pHepQi4GSqDtn3EvgHlwOC-ddZRj63rMNe1Q5AhAi_9sCkF2Fzp719ThBXIBgVRPxL2QupKZcerE3TXuJxFujRm0awAf8iEi0Y60mGE6Qewr1uE7BusqzRpmEm2jpZ7VLs0xPDtXYaiQsR_QaC9ma7ZpQTDmMSx7uZzXAjf_MJL15q6bGuj8L7k9wbIjEnQo3B62_itld5fgs-pVrJMzVnk5jaAia6y3pWEVwyRiVcA1bQ2VKtDlFo6zLRArBUG5WOyXie6smHwgXYewyoinyZit_NI88FrxtD_EDTONb3c7235x5A-qtRKDbzwGOIZvyT8tFFXZ3PzZEy8S3yEUTMH8QAaGQVYzf6CtQMoy2dXU1R5asdSinDGTxn_RdYMyOHupYvOCi4fXgmbmnYiHKSfDh1PgKF7verQ0smCb-0jJRCgk4-OLYkubyv5HCJASG96pU-nnL1QYdzhzhCLKLdiw3xEUlz-1Qb_HCeGswdsao0PeVVB1IpkpqsmL6IF11BmvqB_TYFHdQJyzlmq4IhdmsQ4fVTpfZM%26__tn__%3D%252As-R%26paipv%3D0%26eav%3DAfYge7uWp3rvmUMH8zxH2OTDSlY7yEzN4TiDGYymVa14DymhLgh-IOXZ2jWC77xHk5U&amp;hl=fr&amp;rclk=1 or call them at 58 916 688.</t>
+          <t>The Salon de the Elfoundou lfwndw is a cafe located in Ghardimaou, Tunisia. It is open from 06:10 to 00:00. The cafe has a rating of 4.9 out of 5 stars and offers a variety of drinks and snacks. It is located at coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where is the top-rated cafe, Salon de the Elfoundou lfwndw, located in Ghardimaou that serves delicious coffee?</t>
+          <t>Day Plan:
+Morning: Explore the unique cultural experience at I ghardimaou.
+Mid-Morning: Indulge in authentic flavors at MAC DOLY restaurant.
+Midday: Immerse yourself in the local pottery and weaving traditions in Ghardimaou.
+Afternoon: Take a scenic drive to explore the beautiful surroundings.
+Evening: Enjoy the delicious barbecue delicacies at mshwy nbyl.
+Night: Relax and unwind at the charming Café Zigavou with a cup of coffee or tea.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Café Zigavou is a café located in ghardimaou, Tunisia. Offering an authentic ambiance and a warm welcome, this café is the perfect place to relax and enjoy a cup of coffee or tea. Café Zigavou is known for its friendly atmosphere, its tasty food, and its delicious drinks. Don't miss the opportunity to visit this café located at the following coordinates: (36.4515944, 8.4333415).
+MAC DOLY is a Restaurant located in ghardimaou, Tunisia at the coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3842,12 +5210,58 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Cafe spot, check out Cafe Bejjoudi located at FC2R+8P8. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, so you can enjoy it anytime. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website or call them at 78 000 000.</t>
+          <t>Cafe Bejjoudi, located in Ghardimaou, Tunisia (36.4515944, 8.4333415), is a highly-rated cafe (4.0 stars from 7 reviews). Open 24 hours a day, it offers a wide variety of coffee and tea drinks, as well as a selection of snacks and pastries.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>If you're in Ghardimaou and craving a top-rated Cafe experience, which spot with a 4.0 rating is conveniently open 24 hours at FC2R+8P8?</t>
+          <t>Day Plan:
+Morning: Exploring I ghardimaou for its cultural experience and scenic beauty.
+Mid-Morning: Trying local cuisine at mshwy nbyl for a taste of authentic barbecue.
+Midday: Visiting Relais telephonique for a quick break and to refuel.
+Afternoon: Participating in a guided tour of Ghardimaou to learn about its pottery and weaving traditions.
+Evening: Enjoying scenic views at Station des Louages while waiting for transportation.
+Night: Relaxing with a drink and snacks at Salon de the Elfoundou lfwndw to end the day on a cozy note.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+The Salon de the Elfoundou lfwndw is a cafe located in Ghardimaou, Tunisia. It is open from 06:10 to 00:00. The cafe has a rating of 4.9 out of 5 stars and offers a variety of drinks and snacks. It is located at coordinates (36.4515944, 8.4333415).
+**Restaurant mT'm lrHm@**
+Nestled in the heart of Ghardimaou, mT'm lrHm@ offers a delectable dining experience in the convenient location of CCXQ+8MX. With an impressive 4.5-star rating based on 2 reviews, this restaurant specializes in providing satisfying culinary delights. Its precise coordinates are (36.4515944 latitude, 8.4333415 longitude), making it easily accessible for discerning foodies.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3945,12 +5359,57 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great cafe, check out Cafe Zigavou on Rue Farhat Hached. This top-rated destination is perfect for cafe lovers and offers a range of options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Cafe Zigavou is a 4-star-rated cafe located in Ghardimaou, Tunisia. It is open from 6 AM to midnight every day and offers a variety of food and drinks. The cafe is located at the coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find Cafe Zigavou, a highly-rated destination with a diverse menu, making it perfect for cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore I ghardimaou for its cultural experience and rich history.
+Mid-Morning: Visit Station des Louages for convenient transportation services in the area.
+Midday: Try local cuisine at Resto Top Five, known for its wide range of culinary delights.
+Afternoon: Relax with a cup of coffee or tea at Ghardimaou Tiger Cafe while enjoying the cozy atmosphere.
+Evening: Go shopping at the local market for traditional pottery and weaving, which Ghardimaou is known for.
+Night: Enjoy scenic views at Station Shell, a gas station that offers a range of services and features a picturesque location.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ghardimaou Tiger Cafe is located in the heart of Ghardimaou, Tunisia, on Av. Habib Bourguiba. It offers a cozy and welcoming atmosphere, making it a great place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and pastries, and it has free Wi-Fi for its customers. With its convenient location and friendly staff, Ghardimaou Tiger Cafe is a great place to stop for a quick bite or just to relax and chat with friends.
+Resto Top Five, located in the city of Ghardimaou, is a restaurant offering a wide range of culinary delights. Situated at coordinates (36.4515944, 8.4333415), the resto is open from 09:00 to 23:00 every day except Fridays. With a rating of 4.0 out of 5 based on 8 reviews, Resto Top Five is a popular destination for food enthusiasts.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4044,12 +5503,57 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Fast food located at CCRJ+R82 Fast food, Unnamed Road, Ghardimaou. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>If you're seeking a highly-rated dining experience in Ghardimaou, which top-rated destination with GPS coordinates 36.4515944, 8.4333415 caters specifically to restaurant enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring I ghardimaou for its cultural experience and rich history.
+Mid-Morning: Trying local cuisine at Cafe Jalel, known for its popular cafe scene and positive reviews.
+Midday: Visiting the Station des Louages to explore convenient transportation services in the area.
+Afternoon: Taking a guided tour of Relais telephonique, experiencing its offerings as a gas station and learning about automotive-related services.
+Evening: Enjoying scenic views at the scenic spot in Ghardimaou.
+Night: Relaxing with a local dish at mshwy nbyl, a barbecue restaurant with a 5.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jalel, a cafe located in Ghardimaou coordinates (35.637060466576, 10.76399148328), is a great place to enjoy the local cafe scene. With a rating of 4.0 based on 4 reviews, it's a popular spot among locals and tourists alike. The cafe is open from 05:00-22:00, so it's a great place to start your day or wind down after a long day of exploring.
+BOZA, located in Ghardimaou (coordinates: 36.4515944, 8.4333415), is a restaurant that offers a variety of dishes. It has a 4.0 rating based on 1 review and is open all week.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4143,12 +5647,62 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out mT`m lrHm@ located at CCXQ+8MX mT`m lrHm@, Ghardimaou. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: workday_timing, but closed on closed_on. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at website or call them at phone.</t>
+          <t>**Restaurant mT'm lrHm@**
+Nestled in the heart of Ghardimaou, mT'm lrHm@ offers a delectable dining experience in the convenient location of CCXQ+8MX. With an impressive 4.5-star rating based on 2 reviews, this restaurant specializes in providing satisfying culinary delights. Its precise coordinates are (36.4515944 latitude, 8.4333415 longitude), making it easily accessible for discerning foodies.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant destination with diverse dining options and a 4.5 rating in Ghardimaou?</t>
+          <t>Day Plan:
+Morning: Exploring historical sites in Ghardimaou, such as I ghardimaou.
+Mid-Morning: Trying local cuisine at Resto Top Five, a highly-rated restaurant with a wide range of culinary delights.
+Midday: Taking a guided tour of Station des Louages to learn about the local transportation system.
+Afternoon: Shopping for local crafts and souvenirs at the market.
+Evening: Enjoying scenic views at a nearby park or beach, immersing in the beauty of Ghardimaou's natural surroundings.
+Night: Relaxing with a traditional hammam experience at a local spa or hotel to unwind after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Unveiling the charm of Salon de the Elfoundou lfwndw, a renowned cafe nestled in Ghardimaou. Located at the heart of the city, this haven offers a sanctuary for coffee lovers and tea enthusiasts alike.
+With a cozy ambiance and a 4.9-star rating, Salon de the Elfoundou lfwndw has garnered a loyal customer base. Its convenient location and extended hours, from 06:10 AM to midnight, make it an ideal destination for morning pick-me-ups, afternoon hangouts, or late-night cravings.
+Step inside to discover a menu that tantalizes the taste buds. From aromatic coffees brewed to perfection to an array of tantalizing teas, there's something to satisfy every palate. Pair your beverage of choice with delicious pastries, delectable sandwiches, or mouthwatering desserts.
+Situated at FC3H+327 Salon de the Elfoundou lfwndw, P6, Ghardimaou, this cafe is easily accessible and ready to welcome you with open arms. Engage with the friendly staff, connect with locals, or simply unwind in the comfortable atmosphere.
+Whether you're a resident or just visiting, Salon de the Elfoundou lfwndw is a must-visit destination for your culinary adventures in Ghardimaou.
+Resto Top Five, located in the city of Ghardimaou, is a restaurant offering a wide range of culinary delights. Situated at coordinates (36.4515944, 8.4333415), the resto is open from 09:00 to 23:00 every day except Fridays. With a rating of 4.0 out of 5 based on 8 reviews, Resto Top Five is a popular destination for food enthusiasts.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4242,14 +5796,63 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something yummy, check out BERRAIS located at CCXR+FGH, Ghardimaou. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: workday_timing, but closed on closed_on. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at website or call them at phone.</t>
+          <t>BERRAIS is a highly rated restaurant located in CCXR+FGH BERRAIS, Ghardimaou, Tunisia. It has received positive reviews and offers a variety of dining options. The restaurant is open daily from 12 PM to 10 PM and is situated at coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a highly-rated restaurant (BERRAIS) with a variety of restaurant options and a rating of 4.5?</t>
+          <t>Day Plan:
+Morning:
+- Enjoy a local breakfast at Kamel, a 24-hour cafe in Branssia, Ghardimaou.
+Mid-Morning:
+- Explore the popular tourist attraction of I ghardimaou, known for its rich history and beautiful scenery.
+Midday:
+- Satisfy your culinary cravings at mshwy nbyl, a barbecue restaurant offering delectable dishes with a 5-star rating.
+Afternoon:
+- Indulge in a relaxing spa experience at [Spa/Hotel] to rejuvenate and unwind.
+Evening:
+- Take a guided tour of Ghardimaou, a small town near the Algerian border, to discover its traditional pottery and weaving heritage.
+Night:
+- Immerse yourself in the local culture by visiting the [Cultural Site] or engaging in traditional activities.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Kamel is a 24-hour cafe located in Branssia, Ghardimaou. It has a 4.0-star rating from 2 reviews. The cafe's owner is named "Kamel (proprietaire)." The cafe offers a cozy ambiance and a casual dining experience. Its geolocation is (36.4515944, 8.4333415).
+MAC DOLY is a Restaurant located in ghardimaou, Tunisia at the coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4343,14 +5946,57 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out BOZA located at CCXR+F8G BOZA, Ghardimaou. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>BOZA, located in Ghardimaou (coordinates: 36.4515944, 8.4333415), is a restaurant that offers a variety of dishes. It has a 4.0 rating based on 1 review and is open all week.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dining destination offering a diverse selection of restaurants in the picturesque town of Ghardimaou?</t>
+          <t>Day Plan:
+Morning: Explore the cultural heritage and history of Ghardimaou by visiting historical landmarks and local museums.
+Mid-Morning: Indulge in local cuisine by trying traditional dishes at Restaurant Khaled.
+Midday: Relax and unwind at a spa or enjoy a scenic lunch with picturesque views at a local park.
+Afternoon: Engage in outdoor activities such as hiking or cycling at I ghardimaou.
+Evening: Shop for souvenirs and local crafts at the market in Ghardimaou.
+Night: Experience the vibrant nightlife and enjoy a traditional dinner at mshwy nbyl.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Situated in Ghardimaou, Café Jdidi is a well-rated (4.8/5 from 6 reviews) café that primarily serves coffee and other café offerings. It is open daily from 6 AM to 11 PM and is located at coordinates (36.4515944, 8.4333415).
+Restaurant Khaled is located in Ghardimaou, Tunisia, at coordinates (36.4515944, 8.4333415). It offers a variety of dining options and has a rating of 4.0 out of 5 stars. The restaurant's phone number is 28 478 817, and its address is FC2V+8QJ restaurant khaled, P6, Ghardimaou.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4444,12 +6090,57 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a great Restaurant de grillades, head over to mshwy nbyl at CCXQ+93J mshwy nbyl. This top-rated destination is perfect for Restaurant de grillades lovers and offers a rating of 5.0. It's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B4%D8%A7%D9%88%D9%8A+%D9%86%D8%A8%D9%8A%D9%84%E2%80%AD/data=!4m7!3m6!1s0x12fafd3e312783c3:0x7bfdedc99978dca2!8m2!3d36.4484636!4d8.4376319!16s%2Fg%2F11l2cpfdnr!19sChIJw4MnMT79-hIRotx4mcnt_Xs?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Restaurant de grillades in Ghardimaou with GPS coordinates of 36.4515944, 8.4333415?</t>
+          <t>Day Plan:
+Morning: Explore the scenic I ghardimaou (Coordinates: 36.44788, 8.4413) to delve into the rich history and captivating cultural heritage.
+Mid-Morning: Indulge in the tantalizing local cuisine at Fast Food (Coordinates: 36.4515944, 8.4333415), known for its delectable food options and excellent reviews.
+Midday: Take a short drive to Cafe Jalel (Coordinates: 35.637060466576, 10.76399148328) for a delightful lunch and immerse yourself in the vibrant local cafe scene.
+Afternoon: Enjoy a leisurely walk through Ghardimaou, discovering the traditional pottery and weaving that the town is renowned for.
+Evening: As the sun begins to set, head to mshwy nbyl (Coordinates: 36.4515944, 8.4333415) for an unforgettable barbecue dinner experience under the stars.
+Night: Relish the tranquility of Relais telephonique (Coordinates: 36.4515944, 8.4333415) for a relaxing evening, unwinding by the warmth of a cozy bonfire.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Jalel, a cafe located in Ghardimaou coordinates (35.637060466576, 10.76399148328), is a great place to enjoy the local cafe scene. With a rating of 4.0 based on 4 reviews, it's a popular spot among locals and tourists alike. The cafe is open from 05:00-22:00, so it's a great place to start your day or wind down after a long day of exploring.
+Fast Food is a highly-rated restaurant located in Ghardimaou, Tunisia. It offers a wide range of delicious food options, making it a great choice for both locals and tourists alike. The restaurant is conveniently situated at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). With its excellent reviews and prime location, Fast Food is definitely worth a visit for anyone looking for a great meal.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4543,12 +6234,57 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for somewhere to eat, check out MAC DOLY located at CCXQ+9XV MAC DOLY, Ghardimaou. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their link at https://www.google.com/maps/place/MAC+DOLY/data=!4m7!3m6!1s0x12fafda1d263ae95:0x569da165cbced436!8m2!3d36.4484977!4d8.4399269!16s%2Fg%2F11qswlcqpc!19sChIJla5j0qH9-hIRNtTOy2WhnVY?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>MAC DOLY is a Restaurant located in ghardimaou, Tunisia at the coordinates (36.4515944, 8.4333415).</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a top-rated Restaurant destination with a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the unique cultural heritage of I ghardimaou.
+Mid-Morning: Indulge in delicious local cuisine at the highly-rated Fast Food restaurant.
+Midday: Take a refreshing break at Cafe black and white and enjoy a quick bite and drink.
+Afternoon: Visit the popular tourist attraction, I ghardimaou, to immerse yourself in its rich history and scenic beauty.
+Evening: Head to Station Shell for a quick gas station pit stop and to stock up on essentials.
+Night: Unwind and relax at the comfort of your hotel or spa with a rejuvenating activity of your choice.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+"Cafe black and white" is a well-rated cafe located in Ghardimaou, Tunisia. With a 4.7-star rating and 24/7 opening hours, this cafe is a great spot to grab a quick bite or drink. It is located at the coordinates (36.4515944, 8.4333415) and can be identified with the place ID ChIJu8IyFQL9-hIRK3ONqRwj9WM.
+Fast Food is a highly-rated restaurant located in Ghardimaou, Tunisia. It offers a wide range of delicious food options, making it a great choice for both locals and tourists alike. The restaurant is conveniently situated at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). With its excellent reviews and prime location, Fast Food is definitely worth a visit for anyone looking for a great meal.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4642,12 +6378,57 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Ghardimaou Tiger cafe located at CCWP+2MG Ghardimaou Tiger cafe, Av. Habib Bourguiba, Ghardimaou. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Ghardimaou Tiger Cafe is located in the heart of Ghardimaou, Tunisia, on Av. Habib Bourguiba. It offers a cozy and welcoming atmosphere, making it a great place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and pastries, and it has free Wi-Fi for its customers. With its convenient location and friendly staff, Ghardimaou Tiger Cafe is a great place to stop for a quick bite or just to relax and chat with friends.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a highly-rated cafe with a focus on Cafe and a range of categories to choose from, making it a prime destination for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore I ghardimaou, a popular tourist attraction known for its beautiful scenery and rich history.
+Mid-Morning: Visit BERRAIS, a highly rated restaurant offering a variety of dining options, for a delicious local cuisine experience.
+Midday: Discover Station Shell, a gas station that offers fuel, car wash, and a small grocery store, to refuel and stock up on essentials.
+Afternoon: Head over to Fast food, located at convenient coordinates, for a satisfying culinary experience with a range of delectable dishes.
+Evening: Relax with a scenic view at Station des Louages, a taxi station that also offers convenient transportation services in the area.
+Night: Participate in a cultural immersion experience at Ghardimaou, a small town known for its traditional pottery and weaving.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Tom is a top-rated cafe in Ghardimaou, Tunisia, with a 4.8-star rating based on 12 reviews. It is open 24 hours a day and is located at 36.4515944, 8.4333415. Cafe Tom offers a cozy ambiance and delicious food and drinks, making it a perfect spot for a relaxing or social gathering.
+BERRAIS is a highly rated restaurant located in CCXR+FGH BERRAIS, Ghardimaou, Tunisia. It has received positive reviews and offers a variety of dining options. The restaurant is open daily from 12 PM to 10 PM and is situated at coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4745,14 +6526,57 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out restaurant khaled located at FC2V+8QJ restaurant khaled, P6, Ghardimaou. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant options to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, call them at 28 478 817.</t>
+          <t>Restaurant Khaled is located in Ghardimaou, Tunisia, at coordinates (36.4515944, 8.4333415). It offers a variety of dining options and has a rating of 4.0 out of 5 stars. The restaurant's phone number is 28 478 817, and its address is FC2V+8QJ restaurant khaled, P6, Ghardimaou.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find restaurant khaled, a highly rated restaurant option with GPS coordinates 36.4515944, 8.4333415?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the captivating cultural heritage of I ghardimaou, immersing yourself in its rich history and breathtaking scenery.
+**Mid-Morning:** Indulge in the authentic flavors of local cuisine at Fast Food, savoring the tantalizing dishes that have earned it a stellar reputation.
+**Midday:** Visit the historic gas station, Relais telephonique, to experience a glimpse into the town's past and refuel for the rest of your day.
+**Afternoon:** Explore the scenic Station des Louages, a vibrant hub that offers convenient transportation options and a unique local atmosphere.
+**Evening:** Experience the vibrant ambiance of Café Rhawa, a cozy destination where you can sip on delectable beverages and soak up the welcoming ambiance.
+**Night:** Visit the Station TAXI GHARDIMAOU to arrange transportation for a starlit drive through the enchanting surroundings of Ghardimaou.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rhawa, nestled in Ghardimaou at the coordinates (36.4515944, 8.4333415), is a popular destination with a rating of 4.0 stars. While the website and phone number are not listed, Café Rhawa is open from 6 AM to 8 AM during the week. Its main category is a Cafe, offering a cozy ambiance for patrons to enjoy their beverages.
+Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4846,14 +6670,57 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for something fun to do, check out Fast food located at FC2V+3MC Fast food, Rue med bjaoui. 
-This top-rated destination is perfect for Livraison de repas a domicile lovers and offers a range of Livraison de repas a domicile to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 36.4515944, 8.4333415. For more details, visit their website at or call them at .</t>
+          <t>Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where in ghardimaou can you find a highly-rated spot for Livraison de repas a domicile lovers, specifically located at FC2V+3MC Fast food, Rue med bjaoui?</t>
+          <t>Day Plan:
+Morning: Explore the historic town of Ghardimaou, known for its traditional pottery and weaving.
+Mid-Morning: Visit I ghardimaou, a popular tourist attraction offering a unique cultural experience and beautiful scenery.
+Midday: Try local cuisine at mshwy nbyl, a barbecue restaurant with excellent ratings.
+Afternoon: Enjoy a scenic walk or hike in the surrounding countryside, taking in the picturesque landscapes.
+Evening: Participate in a guided tour of the Station des Louages, the main transportation hub in the area.
+Night: Relax with a drink and enjoy the nightlife at Cafe Bollar, a popular cafe in the town center.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bollar is a cafe located in Ghardimaou, Tunisia. It is open from 6:00 AM to 9:00 PM and is closed on Mondays. The cafe has a rating of 4.0 out of 5 stars and offers a variety of coffee drinks, pastries, and sandwiches. The cafe is located at CCXQ+6RH Cafe Bollar, Ghardimaou.
+Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4951,12 +6818,57 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a train station, check out Ghardimaou located at Ghardimaou. This top-rated destination is perfect for train station lovers and offers a range of train station services to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.4515944, 8.4333415.</t>
+          <t>Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated train station in Ghardimaou and what are its coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring Ghardimaou
+Mid-Morning: Trying local cuisine at BOZA
+Midday: Visiting I ghardimaou
+Afternoon: Enjoying a scenic view at mshwy nbyl
+Evening: Shopping at Station Shell
+Night: Experiencing cultural immersion at STATION TAXI GHARDIMAOU</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bejjoudi, located in Ghardimaou, Tunisia (36.4515944, 8.4333415), is a highly-rated cafe (4.0 stars from 7 reviews). Open 24 hours a day, it offers a wide variety of coffee and tea drinks, as well as a selection of snacks and pastries.
+BOZA, located in Ghardimaou (coordinates: 36.4515944, 8.4333415), is a restaurant that offers a variety of dishes. It has a 4.0 rating based on 1 review and is open all week.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5066,12 +6978,57 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>In ghardimaou, Station Shell is a top-rated destination for Station-service enthusiasts. Located at Station Shell, P6, Ghardimaou 8160, this place offers a range of categories to choose from, including Station-service, Station de lavage automobile, and Superette. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day, 7 days a week. For more details, visit their website at https://find.shell.com/tn/fuel/TN_10044807-ghardimaou or call them at 71 249 149.</t>
+          <t>Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated destination for Station-service enthusiasts in Ghardimaou, offering a range of categories and extended hours?</t>
+          <t>Day Plan:
+Morning: Exploring I ghardimaou, a popular tourist attraction known for its cultural significance and historical charm.
+Mid-Morning: Trying local cuisine at Fast Food, a well-rated restaurant offering a variety of dishes.
+Midday: Visiting the gas station Relais telephonique, which provides various services and can offer insights into the daily life of locals.
+Afternoon: Enjoying scenic views at Station des Louages, while also observing the hustle and bustle of the transportation hub.
+Evening: Taking a guided tour of Ghardimaou, to delve deeper into the town's history, culture, and local traditions.
+Night: Relaxing with a traditional meal and enjoying the cozy ambiance at Café Jdidi, known for its exceptional coffee and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Situated in Ghardimaou, Café Jdidi is a well-rated (4.8/5 from 6 reviews) café that primarily serves coffee and other café offerings. It is open daily from 6 AM to 11 PM and is located at coordinates (36.4515944, 8.4333415).
+Fast Food is a restaurant located in Ghardimaou, Tunisia, offering a variety of dishes. It is located at CCRJ+R82 Unnamed Road, with coordinates (36.4515944, 8.4333415). The restaurant has received 2 reviews and has a rating of 5.0.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5169,13 +7126,57 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and need to catch a cab, head over to STATION TAXI GHARDIMAOU located at FC2R+3F2 STATION TAXI GHARDIMAOU. 
-This top-rated taxi station is ready to serve you with a rating of 3.7. To get there, use these GPS coordinates: 36.44788, 8.4413. For more details or to book a ride, call them at 28 642 470.</t>
+          <t>STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a conveniently located and highly-rated taxi station in Ghardimaou that offers reliable transportation services?</t>
+          <t>Day Plan:
+Morning: Exploring I ghardimaou, a popular tourist attraction with beautiful scenery and rich history.
+Mid-Morning: Trying local cuisine at Resto Top Five, an acclaimed restaurant with a delightful ambiance and an extensive menu.
+Midday: Visiting Cafétirya, a charming cafe offering a variety of coffee drinks, pastries, and snacks.
+Afternoon: Engaging in outdoor activities like hiking or picnicking at Ghardimaou, a small town with scenic landscapes near the Algerian border.
+Evening: Experiencing cultural immersion at the local market, where you can browse traditional pottery and weaving, unique to the region.
+Night: Relaxing with a spa treatment at a local hotel to rejuvenate after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafétirya is a cafe located in Ghardimaou, Tunisia. It offers a variety of coffee drinks, as well as pastries and other snacks. The cafe is open daily from 6am to 9pm, and is located at CCWR+QC2.
+Welcome to Resto Top Five, your ultimate dining destination in ghardimaou. Our restaurant, ideally located at (36.4515944, 8.4333415), offers a delightful ambiance and an extensive menu that caters to every palate. With a rating of 4.0 out of 5 and positive reviews, our commitment to delivering exceptional dining experiences is evident.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5269,12 +7270,57 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a reliable taxi station to get you where you need to go, head to Station de Transport routier a La Foret located at FC2Q+CPJ Station de Transport routier a La Foret. This reputable taxi station has earned a rating of 2.3, indicating positive experiences from past customers. While their specific hours of operation and phone number are not provided, you can find more information at their website. For GPS navigation, use these coordinates: (36.4515944, 8.4333415).</t>
+          <t>Station de Transport Routier a La Foret is a cab station located in ghardimaou. Its coordinates are (36.4515944, 8.4333415) and it received a rating of 2.3 out of 5 on Google based on 3 reviews.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>If you're looking for a reliable taxi station that boasts positive customer experiences in the Ghardimaou area, which station has a rating of 2.3 and is conveniently located at FC2Q+CPJ?</t>
+          <t>Day Plan:
+Morning: Explore I ghardimaou for its rich history and culture.
+Mid-Morning: Visit Cafe Bollar for a delicious coffee and pastry.
+Midday: Try local cuisine at BOZA for a diverse dining experience.
+Afternoon: Relax with a guided tour of Ghardimaou to learn about its traditional pottery and weaving.
+Evening: Enjoy scenic views at Station Shell while refueling your vehicle.
+Night: Engage in cultural immersion at STATION TAXI GHARDIMAOU by taking a taxi to explore the city's nightlife.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bollar is a cafe located in Ghardimaou, Tunisia. It is open from 6:00 AM to 9:00 PM and is closed on Mondays. The cafe has a rating of 4.0 out of 5 stars and offers a variety of coffee drinks, pastries, and sandwiches. The cafe is located at CCXQ+6RH Cafe Bollar, Ghardimaou.
+BOZA, located in Ghardimaou (coordinates: 36.4515944, 8.4333415), is a restaurant that offers a variety of dishes. It has a 4.0 rating based on 1 review and is open all week.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Station Shell is a gas station located in Ghardimaou, Tunisia. It is open 24 hours and offers a range of services, including fuel, car wash, and a small grocery store. The station is rated 3.7 stars by Google users, and it features a featured image that showcases its location and amenities. The coordinates of the station are (36.4441862, 8.4372077), and its phone number is 71 249 149.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5368,12 +7414,66 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and in need of a transportation service, consider Station des Louages\mHT@ lwjt located at FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou. This top-rated spot with a 5.0 rating is perfect for anyone seeking transportation services. For more details, visit their website at https://www.google.com/maps/place/Station+des+Louages%5C%D9%85%D8%AD%D8%B7%D8%A9+%D9%84%D9%88%D8%A7%D8%AC%D8%A7%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x12fafd982e8026b7:0xad79ed18682068a9!8m2!3d36.4509173!4d8.4431665!16s%2Fg%2F11ll35mbhj!19sChIJtyaALpj9-hIRqWggaBjtea0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (5.0) transportation service conveniently located in Ghardimaou?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historic I ghardimaou, known for its cultural experiences and scenery.
+**Mid-Morning:**
+* Visit the Ghardimaou Tiger Cafe for a cozy atmosphere and local coffee.
+**Midday:**
+* Try the local cuisine at Resto Top Five, rated 4.0 out of 5.
+**Afternoon:**
+* Enjoy a relaxing barbecue meal at mshwy nbyl.
+**Evening:**
+* Take a guided tour of Ghardimaou to learn about its pottery and weaving traditions.
+**Night:**
+* Experience the cultural immersion at a local market or participate in a traditional event.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Ghardimaou Tiger Cafe is located in the heart of Ghardimaou, Tunisia, on Av. Habib Bourguiba. It offers a cozy and welcoming atmosphere, making it a great place to relax and enjoy a cup of coffee or tea. The cafe also serves a variety of snacks and pastries, and it has free Wi-Fi for its customers. With its convenient location and friendly staff, Ghardimaou Tiger Cafe is a great place to stop for a quick bite or just to relax and chat with friends.
+Resto Top Five, located in the city of Ghardimaou, is a restaurant offering a wide range of culinary delights. Situated at coordinates (36.4515944, 8.4333415), the resto is open from 09:00 to 23:00 every day except Fridays. With a rating of 4.0 out of 5 based on 8 reviews, Resto Top Five is a popular destination for food enthusiasts.
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5467,12 +7567,57 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in ghardimaou and looking for a reliable fuel station, check out Relais telephonique located at CCXQ+P9X Rue Farhat Hached. This top-rated destination is perfect for those looking to refuel their vehicles. With a rating of 5.0, it's a must-visit spot for all your fuel needs. To get there, use these GPS coordinates: (36.4515944, 8.4333415).</t>
+          <t>Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Where in Ghardimaou can you find a highly rated (5.0) fuel station for your refueling needs, conveniently located at 36.4515944, 8.4333415?</t>
+          <t>Day Plan:
+Morning: Explore I ghardimaou, a popular tourist attraction with cultural significance and scenic beauty.
+Mid-Morning: Head to Cafe Rahoui, a 4-star rated cafe, for a delightful breakfast and coffee.
+Midday: Visit the historic and traditional pottery and weaving shops of Ghardimaou to gain insights into the town's cultural heritage.
+Afternoon: Indulge in authentic local cuisine by trying the barbecue dishes at mshwy nbyl, a highly-rated barbecue restaurant.
+Evening: Take a relaxing stroll through the scenic streets of Ghardimaou, enjoying the ambiance and local sights.
+Night: Experience the vibrant nightlife at the local bars or restaurants, indulging in traditional Tunisian music and delicious local delicacies.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Rahoui is a 4-star rated cafe located in Ghardimaou, Tunisia. Its exact location is at (36.4515944, 8.4333415) with phone number 21 443 037. Unfortunately, there is no additional information about its offerings, website, or owner.
+MAC DOLY is a Restaurant located in ghardimaou, Tunisia at the coordinates (36.4515944, 8.4333415).
+I ghardimaou is a popular tourist attraction located in Ghardimaou, Tunisia. It offers a unique cultural experience and is known for its beautiful scenery and rich history. With a rating of 4.0 out of 5, this location has received positive feedback from visitors. The attraction is situated at coordinates (36.44788, 8.4413) and is easily accessible.
+mshwy nbyl is a barbecue restaurant located in Ghardimaou, Tunisia. Its coordinates are (36.4515944, 8.4333415) and it has a rating of 5.0 stars based on one review.
+Nestled in ghardimaou, Fast food serves an array of delectable dishes that can be conveniently delivered to your doorstep. Located at the coordinates (36.4515944, 8.4333415), it offers a satisfying culinary experience with a 4.0 rating based on 1 review.
+Ghardimaou is a small town in north-western Tunisia near the border with Algeria. The town is located on the main road from Tunis to Algiers. It is served by a railway line that connects it to Tunis and other major cities in Tunisia. Ghardimaou is known for its traditional pottery and weaving.
+Relais telephonique is a gas station located in ghardimaou, Tunisia. It is situated at the coordinates (36.4515944, 8.4333415) and offers various services to its customers. As it is a gas station, it primarily offers fuel for vehicles and may also provide other automotive-related services.
+STATION TAXI GHARDIMAOU is a taxi station located in Ghardimaou, Tunisia. It offers taxi services to and from the city. The station is open 24 hours a day, 7 days a week. It is located at FC2R+3F2, Ghardimaou. The station's phone number is 28 642 470.
+**Station des Louages**
+**Location:** FC2V+977 Station des Louages\mHT@ lwjt, Ghardimaou (36.4515944, 8.4333415)
+Station des Louages offers convenient transportation services in the area.
+**Rating:** 5.0/5 based on 1 review
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
